--- a/documentation/17 Análise de Evento.xlsx
+++ b/documentation/17 Análise de Evento.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Externo</t>
   </si>
@@ -34,13 +34,13 @@
     <t>Não Previsível</t>
   </si>
   <si>
-    <t>Relativo</t>
+    <t>Relativo*</t>
   </si>
   <si>
     <t>Absoluto</t>
   </si>
   <si>
-    <t>Não Evento</t>
+    <t>Não Evento*</t>
   </si>
   <si>
     <t>Extemporâneo</t>
@@ -52,7 +52,7 @@
     <t>FB</t>
   </si>
   <si>
-    <t>Paciente Solicita Exame</t>
+    <t>Paciente solicita exame</t>
   </si>
   <si>
     <t>X</t>
@@ -70,58 +70,85 @@
     <t>X(2)</t>
   </si>
   <si>
+    <t>Recepcionista finaliza solicitação</t>
+  </si>
+  <si>
+    <t>X(3)</t>
+  </si>
+  <si>
     <t>FA</t>
   </si>
   <si>
-    <t>Paciente Insiste que plano atende exame</t>
-  </si>
-  <si>
-    <t>Plano de Saúde responde sobre cobertura do exame</t>
+    <t>Paciente insiste que plano atende exame</t>
+  </si>
+  <si>
+    <t>Plano de saúde responde sobre cobertura do exame</t>
+  </si>
+  <si>
+    <t>X(5)</t>
+  </si>
+  <si>
+    <t>Paciente solicita exame como particular + pagamento</t>
+  </si>
+  <si>
+    <t>Recepcionista analisa solicitação de exame particular</t>
+  </si>
+  <si>
+    <t>X(7)</t>
+  </si>
+  <si>
+    <t>Paciente cancela solicitação de exame</t>
+  </si>
+  <si>
+    <t>Receber Paciente</t>
+  </si>
+  <si>
+    <t>Paciente comparece para exame</t>
   </si>
   <si>
     <t>X(4)</t>
   </si>
   <si>
-    <t>Paciente Solicita Exame como Particular + pagamento</t>
-  </si>
-  <si>
-    <t>Recepcionista analisa solicitação de exame particular</t>
-  </si>
-  <si>
-    <t>X(6)</t>
-  </si>
-  <si>
-    <t>Paciente cancela solicitação de exame</t>
-  </si>
-  <si>
-    <t>Receber Paciente</t>
-  </si>
-  <si>
-    <t>Paciente comparece para exame</t>
-  </si>
-  <si>
-    <t>X(3)</t>
-  </si>
-  <si>
     <t>Recepcionista encaminha paciente</t>
   </si>
   <si>
-    <t>X(9)</t>
+    <t>X(10)</t>
+  </si>
+  <si>
+    <t>Recepcionista finaliza agendamento</t>
+  </si>
+  <si>
+    <t>X(11)</t>
   </si>
   <si>
     <t>Realizar Exame</t>
   </si>
   <si>
+    <t>Recepção entrega ficha do paciente</t>
+  </si>
+  <si>
     <t>Técnico chama paciente</t>
   </si>
   <si>
-    <t>X(10)</t>
+    <t>X(13)</t>
+  </si>
+  <si>
+    <t>Paciente avisa presença</t>
+  </si>
+  <si>
+    <t>X(14)</t>
   </si>
   <si>
     <t>Técnico informa data para retirar resultado do exame</t>
   </si>
   <si>
-    <t>X(11)</t>
+    <t>X(15)</t>
+  </si>
+  <si>
+    <t>Técnico encerra atendimento</t>
+  </si>
+  <si>
+    <t>X(16)</t>
   </si>
   <si>
     <t>Paciente ausente</t>
@@ -131,16 +158,13 @@
   </si>
   <si>
     <t>Paciente solicita retirada do exame</t>
-  </si>
-  <si>
-    <t>X(12)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -158,6 +182,11 @@
     </font>
     <font/>
     <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
     <font>
@@ -167,7 +196,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +235,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF93C47D"/>
         <bgColor rgb="FF93C47D"/>
       </patternFill>
@@ -229,9 +264,25 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -243,25 +294,9 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -303,73 +338,118 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="5" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="9" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="4" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,300 +708,390 @@
       <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="13">
         <v>1.0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="12">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16">
         <v>2.0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="20">
         <v>3.0</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6">
-      <c r="A6" s="13"/>
-      <c r="B6" s="19" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24">
+        <v>4.0</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="15">
-        <v>4.0</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="15"/>
+      <c r="B7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5.0</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15">
-        <v>5.0</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20">
+        <v>7.0</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="30"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="24">
+        <v>8.0</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="28">
+        <v>9.0</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="20">
+        <v>11.0</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24">
+        <v>12.0</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="28">
+        <v>13.0</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="28"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="24">
+        <v>14.0</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="20">
+        <v>15.0</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16">
+        <v>16.0</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="16"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="16"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="20">
+        <v>17.0</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="28"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="23"/>
+      <c r="B20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="15">
-        <v>6.0</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="15">
-        <v>7.0</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="15">
-        <v>8.0</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="C20" s="24">
+        <v>18.0</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" s="16"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="15">
-        <v>9.0</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="15">
-        <v>10.0</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15">
-        <v>11.0</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="15">
-        <v>12.0</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="16"/>
-      <c r="B15" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="20">
-        <v>13.0</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="12"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="20">
-        <v>14.0</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="C21" s="20">
+        <v>19.0</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A20"/>
+    <mergeCell ref="B15:B19"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B6"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
